--- a/webScrapping/espn_scrapper/IPL/Kolkata Knight Riders/Andre Russell.xlsx
+++ b/webScrapping/espn_scrapper/IPL/Kolkata Knight Riders/Andre Russell.xlsx
@@ -474,98 +474,98 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> Oct 16 2020</v>
+        <v xml:space="preserve"> Oct 18 2020</v>
       </c>
       <c r="B3" t="str">
         <v xml:space="preserve"> Abu Dhabi</v>
       </c>
       <c r="C3" t="str">
-        <v>Mumbai won by 8 wickets (with 19 balls remaining)</v>
+        <v>Match tied (KKR won the one-over eliminator)</v>
       </c>
       <c r="D3" t="str">
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="E3" t="str">
-        <v>Mumbai Indians</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="F3" t="str">
         <v>Andre Russell</v>
       </c>
       <c r="G3" t="str">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H3" t="str">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I3" t="str">
         <v>1</v>
       </c>
       <c r="J3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="str">
-        <v>133.33</v>
+        <v>81.81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v xml:space="preserve"> Sep 30 2020</v>
+        <v xml:space="preserve"> Oct 16 2020</v>
       </c>
       <c r="B4" t="str">
-        <v xml:space="preserve"> Dubai (DSC)</v>
+        <v xml:space="preserve"> Abu Dhabi</v>
       </c>
       <c r="C4" t="str">
-        <v>KKR won by 37 runs</v>
+        <v>Mumbai won by 8 wickets (with 19 balls remaining)</v>
       </c>
       <c r="D4" t="str">
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="E4" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="F4" t="str">
         <v>Andre Russell</v>
       </c>
       <c r="G4" t="str">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H4" t="str">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4" t="str">
-        <v>171.42</v>
+        <v>133.33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v xml:space="preserve"> Oct 18 2020</v>
+        <v xml:space="preserve"> Oct 10 2020</v>
       </c>
       <c r="B5" t="str">
         <v xml:space="preserve"> Abu Dhabi</v>
       </c>
       <c r="C5" t="str">
-        <v>Match tied (KKR won the one-over eliminator)</v>
+        <v>KKR won by 2 runs</v>
       </c>
       <c r="D5" t="str">
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="E5" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Kings XI Punjab</v>
       </c>
       <c r="F5" t="str">
         <v>Andre Russell</v>
       </c>
       <c r="G5" t="str">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H5" t="str">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I5" t="str">
         <v>1</v>
@@ -574,42 +574,42 @@
         <v>0</v>
       </c>
       <c r="K5" t="str">
-        <v>81.81</v>
+        <v>166.66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v xml:space="preserve"> Oct 10 2020</v>
+        <v xml:space="preserve"> Sep 30 2020</v>
       </c>
       <c r="B6" t="str">
-        <v xml:space="preserve"> Abu Dhabi</v>
+        <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C6" t="str">
-        <v>KKR won by 2 runs</v>
+        <v>KKR won by 37 runs</v>
       </c>
       <c r="D6" t="str">
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="E6" t="str">
-        <v>Kings XI Punjab</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="F6" t="str">
         <v>Andre Russell</v>
       </c>
       <c r="G6" t="str">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H6" t="str">
+        <v>14</v>
+      </c>
+      <c r="I6" t="str">
+        <v>0</v>
+      </c>
+      <c r="J6" t="str">
         <v>3</v>
       </c>
-      <c r="I6" t="str">
-        <v>1</v>
-      </c>
-      <c r="J6" t="str">
-        <v>0</v>
-      </c>
       <c r="K6" t="str">
-        <v>166.66</v>
+        <v>171.42</v>
       </c>
     </row>
     <row r="7">
